--- a/funds.xlsx
+++ b/funds.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3642FDAB-F251-46C2-9C7F-33CCC4ED8DFE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1454F12D-AF33-49CE-8CFD-663D8A63A06A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="淘宝" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>流浪共和</t>
   </si>
@@ -40,6 +42,27 @@
   </si>
   <si>
     <t>满减</t>
+  </si>
+  <si>
+    <t>早</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>晚</t>
+  </si>
+  <si>
+    <t>零食</t>
+  </si>
+  <si>
+    <t>服饰</t>
+  </si>
+  <si>
+    <t>花呗</t>
+  </si>
+  <si>
+    <t>白条</t>
   </si>
 </sst>
 </file>
@@ -75,11 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,7 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -396,4 +420,149 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3E67D-EFD9-45FB-B050-D45B233E14ED}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>43369</v>
+      </c>
+      <c r="B2">
+        <v>6.24</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F2">
+        <v>184.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43370</v>
+      </c>
+      <c r="B3">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA960E-6676-4F8F-BEE0-80E777F386D8}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>673.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>718.56</v>
+      </c>
+      <c r="C3">
+        <v>420.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>184.55</v>
+      </c>
+      <c r="C4">
+        <v>190.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>82.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/funds.xlsx
+++ b/funds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1454F12D-AF33-49CE-8CFD-663D8A63A06A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF2FE993-8C73-4A41-8959-FCFC2A903956}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,8 +11,9 @@
     <sheet name="淘宝" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="office" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,8 +22,307 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{199E2162-6D49-402D-8E22-EEB2A58353F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+骑行卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{4A65F4C9-7927-4D2C-8EA1-8ECCCA7FB2F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+京东到家</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{9857864D-F8F6-4B93-95E5-E6B0B3150F7F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+京东到家</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{33C1262F-322F-46F4-B859-EA024B764AD0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+大闸蟹</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{7E0AD1EA-D172-46A7-A365-5A3FFB83A2A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+火车退票手续费</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{0B1A6966-774C-416F-9C9B-5D24DE670762}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+京东化妆品</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{BD381AF3-DA45-47F0-8275-CB95899715E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+火车票：306.4
+花：30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{8B9C816D-DEAF-47E4-9C56-EC4A6B4CF0C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+火车退票手续费</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{57E114D0-44DF-4A3C-A57C-A8014CDB0208}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+火车票</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{949F4B6E-61BC-441E-A6B7-E28D37A4D21D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+补车胎</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{01AB73AD-9466-400A-886D-153D44AE2A27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+电费</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{6B755F20-EE7E-44CC-BED6-47071D45FB80}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+骑行卡</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>流浪共和</t>
   </si>
@@ -63,19 +363,69 @@
   </si>
   <si>
     <t>白条</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据1 </t>
+  </si>
+  <si>
+    <t>数据2</t>
+  </si>
+  <si>
+    <t>数据3</t>
+  </si>
+  <si>
+    <t>数据4</t>
+  </si>
+  <si>
+    <t>数据5</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>469/499-10
+699-15
+899-20
+1099-25
+1299-30</t>
+  </si>
+  <si>
+    <t>水费+煤气</t>
+  </si>
+  <si>
+    <t>电费</t>
+  </si>
+  <si>
+    <t>房租</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,12 +448,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,37 +737,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3">
+        <v>10.9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3E67D-EFD9-45FB-B050-D45B233E14ED}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>43369</v>
+      </c>
+      <c r="B2">
+        <v>6.24</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F2">
+        <v>184.55</v>
+      </c>
+      <c r="I2">
+        <f>SUM(B2:G2)</f>
+        <v>212.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43370</v>
+      </c>
+      <c r="B3">
+        <v>5.8</v>
+      </c>
+      <c r="C3">
+        <v>11.5</v>
+      </c>
+      <c r="D3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I15" si="0">SUM(B3:G3)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43371</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10.5</v>
+      </c>
+      <c r="D4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43372</v>
+      </c>
+      <c r="B5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C5">
+        <v>9.5</v>
+      </c>
+      <c r="E5">
+        <v>30.66</v>
+      </c>
+      <c r="G5">
+        <v>34.08</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>79.14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>67.78</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>89</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43375</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>155.34</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>155.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43376</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43377</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>89.9</v>
+      </c>
+      <c r="F10">
+        <v>293.89999999999998</v>
+      </c>
+      <c r="G10">
+        <v>372.3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>756.09999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43378</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43379</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>173.5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43380</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>90</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43381</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G14">
+        <v>201</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>219.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43382</v>
+      </c>
+      <c r="B15">
+        <v>5.5</v>
+      </c>
+      <c r="C15">
+        <v>12.5</v>
+      </c>
+      <c r="F15">
+        <v>389.54</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>417.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>43401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" ref="B35:H35" si="1">SUM(B2:B34)</f>
+        <v>33.44</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>53.9</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>277.34000000000003</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>867.99</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1057.02</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>SUM(I2:I34)</f>
+        <v>2361.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA960E-6676-4F8F-BEE0-80E777F386D8}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+      <c r="F2">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>190</v>
+      </c>
+      <c r="F5">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>673.66</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>718.56</v>
+      </c>
+      <c r="C7">
+        <v>485.11</v>
+      </c>
+      <c r="E7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>184.55</v>
+      </c>
+      <c r="C8">
+        <v>190.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>82.14</v>
       </c>
     </row>
   </sheetData>
@@ -422,144 +1334,131 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3E67D-EFD9-45FB-B050-D45B233E14ED}">
-  <dimension ref="A1:F9"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E527DD-F7D7-4A33-9F83-0918C0E9A211}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>43369</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>194</v>
       </c>
       <c r="B2">
-        <v>6.24</v>
+        <v>158</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D2">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F2">
-        <v>184.55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>43370</v>
+        <v>171</v>
+      </c>
+      <c r="E2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>133</v>
       </c>
       <c r="B3">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>43371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>43372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>43373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>43374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>43375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>43376</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA960E-6676-4F8F-BEE0-80E777F386D8}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>673.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>718.56</v>
+        <v>170</v>
       </c>
       <c r="C3">
-        <v>420.37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="D3">
+        <v>141</v>
+      </c>
+      <c r="E3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B4">
-        <v>184.55</v>
+        <v>170</v>
       </c>
       <c r="C4">
-        <v>190.43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="D4">
+        <v>123</v>
+      </c>
+      <c r="E4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>191</v>
+      </c>
+      <c r="B5">
+        <v>118</v>
+      </c>
       <c r="C5">
-        <v>82.14</v>
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>196</v>
+      </c>
+      <c r="E5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>127</v>
+      </c>
+      <c r="B6">
+        <v>124</v>
+      </c>
+      <c r="C6">
+        <v>199</v>
+      </c>
+      <c r="D6">
+        <v>134</v>
+      </c>
+      <c r="E6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/funds.xlsx
+++ b/funds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF2FE993-8C73-4A41-8959-FCFC2A903956}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D2AB52D0-38BF-4460-9518-B744C4AFAC72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="office" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +29,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{199E2162-6D49-402D-8E22-EEB2A58353F8}">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{199E2162-6D49-402D-8E22-EEB2A58353F8}">
       <text>
         <r>
           <rPr>
@@ -72,11 +73,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-京东到家</t>
+京东到家30.66+34.08</t>
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{9857864D-F8F6-4B93-95E5-E6B0B3150F7F}">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{9857864D-F8F6-4B93-95E5-E6B0B3150F7F}">
       <text>
         <r>
           <rPr>
@@ -97,6 +98,30 @@
           </rPr>
           <t xml:space="preserve">
 京东到家</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{7EE566FC-FDFF-401C-BE7D-789AB6B2DC24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+京东到家 35.18+32.6</t>
         </r>
       </text>
     </comment>
@@ -124,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{7E0AD1EA-D172-46A7-A365-5A3FFB83A2A1}">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{7E0AD1EA-D172-46A7-A365-5A3FFB83A2A1}">
       <text>
         <r>
           <rPr>
@@ -172,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{BD381AF3-DA45-47F0-8275-CB95899715E9}">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{BD381AF3-DA45-47F0-8275-CB95899715E9}">
       <text>
         <r>
           <rPr>
@@ -192,12 +217,35 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-火车票：306.4
-花：30</t>
+火车票：306.4</t>
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{8B9C816D-DEAF-47E4-9C56-EC4A6B4CF0C3}">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{FCDD0FF0-01E9-4D74-A283-E09C469FAC55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+花</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{8B9C816D-DEAF-47E4-9C56-EC4A6B4CF0C3}">
       <text>
         <r>
           <rPr>
@@ -221,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{57E114D0-44DF-4A3C-A57C-A8014CDB0208}">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{57E114D0-44DF-4A3C-A57C-A8014CDB0208}">
       <text>
         <r>
           <rPr>
@@ -245,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{949F4B6E-61BC-441E-A6B7-E28D37A4D21D}">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{949F4B6E-61BC-441E-A6B7-E28D37A4D21D}">
       <text>
         <r>
           <rPr>
@@ -269,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{01AB73AD-9466-400A-886D-153D44AE2A27}">
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{01AB73AD-9466-400A-886D-153D44AE2A27}">
       <text>
         <r>
           <rPr>
@@ -293,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{6B755F20-EE7E-44CC-BED6-47071D45FB80}">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{6B755F20-EE7E-44CC-BED6-47071D45FB80}">
       <text>
         <r>
           <rPr>
@@ -314,6 +362,175 @@
           </rPr>
           <t xml:space="preserve">
 骑行卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{D1664FB0-8A87-44D8-A94E-809260A7BF6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+京东，姨妈巾</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{6EAE2D42-DC2D-4FC4-9D3D-E8ED4923A5EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+京东到家</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{3DF7BBF4-B119-47EB-B456-F4AC2CA4039C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+京东，衣物护理液</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{4850F62B-97CE-46EE-AC7C-4E2150717B29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+宜家糖</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{EBCCA778-CC65-4B4D-BA5A-26571D7F4178}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+宜家</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{9A36D16D-C76F-457D-B5B0-9EBF46EFCB5D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+京东到家37.9
+费列罗：20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{5BC61BF9-6ADF-439C-958A-D465AC9C915B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+京东到家</t>
         </r>
       </text>
     </comment>
@@ -322,7 +539,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>流浪共和</t>
   </si>
@@ -401,12 +618,51 @@
   <si>
     <t>房租</t>
   </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s?__biz=MzI0MDQxNDUwMw==&amp;mid=2247490046&amp;idx=2&amp;sn=35056c072f08be2582d2a5cdfcb7ba85&amp;chksm=e91a63b6de6deaa0962f739298645b4fc2dabf54c65ccc64863c8020de80fac84b4856391d4e&amp;scene=0#rd</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>第三大的数</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>鸟</t>
+  </si>
+  <si>
+    <t>飞绝</t>
+  </si>
+  <si>
+    <t>万径</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>踪</t>
+  </si>
+  <si>
+    <t>灭</t>
+  </si>
+  <si>
+    <t>化妆品</t>
+  </si>
+  <si>
+    <t>出行</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +682,22 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0F7D62"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFD6A841"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -448,12 +720,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -740,7 +1018,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,8 +1038,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9.26</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -774,7 +1055,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3">
         <v>10.9</v>
       </c>
@@ -798,19 +1079,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3E67D-EFD9-45FB-B050-D45B233E14ED}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -827,13 +1109,19 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43369</v>
       </c>
@@ -849,12 +1137,12 @@
       <c r="F2">
         <v>184.55</v>
       </c>
-      <c r="I2">
-        <f>SUM(B2:G2)</f>
+      <c r="J2">
+        <f>SUM(B2:I2)</f>
         <v>212.49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43370</v>
       </c>
@@ -867,12 +1155,12 @@
       <c r="D3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I15" si="0">SUM(B3:G3)</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J34" si="0">SUM(B3:I3)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43371</v>
       </c>
@@ -885,15 +1173,15 @@
       <c r="D4">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
+      <c r="J4">
+        <f>SUM(B4:H4)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43372</v>
       </c>
@@ -904,17 +1192,14 @@
         <v>9.5</v>
       </c>
       <c r="E5">
-        <v>30.66</v>
-      </c>
-      <c r="G5">
-        <v>34.08</v>
-      </c>
-      <c r="I5">
+        <v>64.739999999999995</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>79.14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43373</v>
       </c>
@@ -927,126 +1212,108 @@
       <c r="E6">
         <v>67.78</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>77.78</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43374</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="E7">
         <v>89</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43375</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="G8">
         <v>155.34</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
+      <c r="J8">
+        <f>SUM(B8:H8)</f>
         <v>155.34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43376</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="D9">
         <v>19.899999999999999</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43377</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="E10">
         <v>89.9</v>
       </c>
       <c r="F10">
         <v>293.89999999999998</v>
       </c>
-      <c r="G10">
-        <v>372.3</v>
+      <c r="H10">
+        <v>306.39999999999998</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>756.09999999999991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <f>SUM(B10:H10)</f>
+        <v>690.19999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43378</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43379</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="H12">
         <v>173.5</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
+      <c r="J12">
+        <f>SUM(B12:H12)</f>
         <v>173.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43380</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="I13">
         <v>90</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43381</v>
       </c>
@@ -1059,15 +1326,15 @@
       <c r="D14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>201</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>219.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43382</v>
       </c>
@@ -1080,141 +1347,320 @@
       <c r="F15">
         <v>389.54</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
+      <c r="J15">
+        <f>SUM(B15:H15)</f>
         <v>417.54</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43383</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>8.4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="L16">
+        <v>4260.1000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43384</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>16.5</v>
+      </c>
+      <c r="D17">
+        <v>10.8</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>31.3</v>
+      </c>
+      <c r="L17">
+        <v>4323.9399999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43385</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43386</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="I19">
+        <v>49.2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>65.510000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43387</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="I20">
+        <v>32.9</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>65.56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43388</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>9.5</v>
+      </c>
+      <c r="D21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H21">
+        <v>3.99</v>
+      </c>
+      <c r="J21">
+        <f>SUM(B21:H21)</f>
+        <v>21.689999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43389</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43390</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>4.5</v>
+      </c>
+      <c r="D23">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E23">
+        <v>27.6</v>
+      </c>
+      <c r="I23">
+        <v>112</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43391</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>6.5</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f>SUM(B24:H24)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43392</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43393</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>47.81</v>
+      </c>
+      <c r="E26">
+        <v>57.9</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>105.71000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43394</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>34.619999999999997</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>54.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43395</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3.9</v>
+      </c>
+      <c r="C28">
+        <v>8.5</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f>SUM(B28:H28)</f>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43396</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43397</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43398</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43399</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43400</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43401</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f t="shared" ref="B35:H35" si="1">SUM(B2:B34)</f>
-        <v>33.44</v>
+        <f t="shared" ref="B35:J35" si="1">SUM(B2:B34)</f>
+        <v>61.739999999999995</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>157.4</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>53.9</v>
+        <v>157.42000000000002</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>277.34000000000003</v>
+        <v>464.19999999999993</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>867.99</v>
+        <v>887.99</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>1057.02</v>
+        <v>155.34</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>504.69</v>
       </c>
       <c r="I35">
-        <f>SUM(I2:I34)</f>
-        <v>2361.69</v>
+        <f t="shared" si="1"/>
+        <v>527.09999999999991</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>2885.8800000000006</v>
       </c>
     </row>
   </sheetData>
@@ -1225,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA960E-6676-4F8F-BEE0-80E777F386D8}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1682,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -1253,80 +1699,162 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4323.9399999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>6692.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="B4">
+        <v>2117.2199999999998</v>
+      </c>
+      <c r="C4">
+        <v>654.28</v>
+      </c>
+      <c r="F4">
         <v>4563</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="G4">
+        <v>5264.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="B5">
+        <v>1952.84</v>
+      </c>
+      <c r="C5">
+        <v>935.82</v>
+      </c>
+      <c r="E5">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G5">
+        <v>4461.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="B6">
+        <v>2925.76</v>
+      </c>
+      <c r="C6">
+        <v>663.38</v>
+      </c>
+      <c r="D6">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="G6">
+        <v>4345.4799999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="B7">
+        <v>1813.97</v>
+      </c>
+      <c r="C7">
+        <v>881.47</v>
+      </c>
+      <c r="E7">
         <v>190</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>3463</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="G7">
+        <v>5242.37</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <f>SUM(G7:G9)</f>
+        <v>13826.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>673.66</v>
-      </c>
-      <c r="D6">
+      <c r="B8">
+        <v>852.43</v>
+      </c>
+      <c r="C8">
+        <v>679.98</v>
+      </c>
+      <c r="D8">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="G8">
+        <v>4260.1000000000004</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>718.56</v>
-      </c>
-      <c r="C7">
-        <v>485.11</v>
-      </c>
-      <c r="E7">
+      <c r="B9">
+        <v>690.96</v>
+      </c>
+      <c r="C9">
+        <v>682.72</v>
+      </c>
+      <c r="E9">
         <v>201</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="G9">
+        <v>4323.9399999999996</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>184.55</v>
-      </c>
-      <c r="C8">
-        <v>190.43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9">
+      <c r="B10">
+        <v>893.43</v>
+      </c>
+      <c r="C10">
+        <v>270.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>82.14</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G2:G9)</f>
+        <v>38915.279999999999</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I7,G11)</f>
+        <v>52741.69</v>
       </c>
     </row>
   </sheetData>
@@ -1336,129 +1864,245 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E527DD-F7D7-4A33-9F83-0918C0E9A211}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>194</v>
+      </c>
+      <c r="B2">
+        <v>158</v>
+      </c>
+      <c r="C2">
+        <v>136</v>
+      </c>
+      <c r="D2">
+        <v>171</v>
+      </c>
+      <c r="E2">
+        <v>126</v>
+      </c>
+      <c r="F2">
+        <f>RANK(E2,E:E)</f>
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <f>LARGE(E2:E6,3)</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>133</v>
+      </c>
+      <c r="B3">
+        <v>170</v>
+      </c>
+      <c r="C3">
+        <v>132</v>
+      </c>
+      <c r="D3">
+        <v>141</v>
+      </c>
+      <c r="E3">
+        <v>146</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="0">RANK(E3,E:E)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>132</v>
+      </c>
+      <c r="B4">
+        <v>170</v>
+      </c>
+      <c r="C4">
+        <v>164</v>
+      </c>
+      <c r="D4">
+        <v>123</v>
+      </c>
+      <c r="E4">
+        <v>178</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>191</v>
+      </c>
+      <c r="B5">
+        <v>118</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>196</v>
+      </c>
+      <c r="E5">
+        <v>106</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>127</v>
+      </c>
+      <c r="B6">
+        <v>124</v>
+      </c>
+      <c r="C6">
+        <v>199</v>
+      </c>
+      <c r="D6">
+        <v>134</v>
+      </c>
+      <c r="E6">
+        <v>158</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="e">
+        <f>PHONETIC(A11:B14)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" ref="C12:C13" si="1">PHONETIC(A12:B15)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACE54CC-E85B-46AC-84F7-C8DD3016E77D}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>194</v>
-      </c>
-      <c r="B2">
-        <v>158</v>
-      </c>
-      <c r="C2">
-        <v>136</v>
-      </c>
-      <c r="D2">
-        <v>171</v>
-      </c>
-      <c r="E2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>133</v>
-      </c>
-      <c r="B3">
-        <v>170</v>
-      </c>
-      <c r="C3">
-        <v>132</v>
-      </c>
-      <c r="D3">
-        <v>141</v>
-      </c>
-      <c r="E3">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>132</v>
-      </c>
-      <c r="B4">
-        <v>170</v>
-      </c>
-      <c r="C4">
-        <v>164</v>
-      </c>
-      <c r="D4">
-        <v>123</v>
-      </c>
-      <c r="E4">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>191</v>
-      </c>
-      <c r="B5">
-        <v>118</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5">
-        <v>196</v>
-      </c>
-      <c r="E5">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>127</v>
-      </c>
-      <c r="B6">
-        <v>124</v>
-      </c>
-      <c r="C6">
-        <v>199</v>
-      </c>
-      <c r="D6">
-        <v>134</v>
-      </c>
-      <c r="E6">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>300</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/funds.xlsx
+++ b/funds.xlsx
@@ -3,16 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D2AB52D0-38BF-4460-9518-B744C4AFAC72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B033F306-FCDF-4DF0-9132-302A4F8E345C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="淘宝" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="日常" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="office" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -125,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{33C1262F-322F-46F4-B859-EA024B764AD0}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{33C1262F-322F-46F4-B859-EA024B764AD0}">
       <text>
         <r>
           <rPr>
@@ -149,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{7E0AD1EA-D172-46A7-A365-5A3FFB83A2A1}">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{7E0AD1EA-D172-46A7-A365-5A3FFB83A2A1}">
       <text>
         <r>
           <rPr>
@@ -173,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{0B1A6966-774C-416F-9C9B-5D24DE670762}">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{0B1A6966-774C-416F-9C9B-5D24DE670762}">
       <text>
         <r>
           <rPr>
@@ -197,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{BD381AF3-DA45-47F0-8275-CB95899715E9}">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{BD381AF3-DA45-47F0-8275-CB95899715E9}">
       <text>
         <r>
           <rPr>
@@ -221,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{FCDD0FF0-01E9-4D74-A283-E09C469FAC55}">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{FCDD0FF0-01E9-4D74-A283-E09C469FAC55}">
       <text>
         <r>
           <rPr>
@@ -245,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{8B9C816D-DEAF-47E4-9C56-EC4A6B4CF0C3}">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{8B9C816D-DEAF-47E4-9C56-EC4A6B4CF0C3}">
       <text>
         <r>
           <rPr>
@@ -269,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{57E114D0-44DF-4A3C-A57C-A8014CDB0208}">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{57E114D0-44DF-4A3C-A57C-A8014CDB0208}">
       <text>
         <r>
           <rPr>
@@ -293,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{949F4B6E-61BC-441E-A6B7-E28D37A4D21D}">
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{949F4B6E-61BC-441E-A6B7-E28D37A4D21D}">
       <text>
         <r>
           <rPr>
@@ -317,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{01AB73AD-9466-400A-886D-153D44AE2A27}">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{01AB73AD-9466-400A-886D-153D44AE2A27}">
       <text>
         <r>
           <rPr>
@@ -341,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{6B755F20-EE7E-44CC-BED6-47071D45FB80}">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{6B755F20-EE7E-44CC-BED6-47071D45FB80}">
       <text>
         <r>
           <rPr>
@@ -365,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{D1664FB0-8A87-44D8-A94E-809260A7BF6F}">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{D1664FB0-8A87-44D8-A94E-809260A7BF6F}">
       <text>
         <r>
           <rPr>
@@ -389,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{6EAE2D42-DC2D-4FC4-9D3D-E8ED4923A5EE}">
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{6EAE2D42-DC2D-4FC4-9D3D-E8ED4923A5EE}">
       <text>
         <r>
           <rPr>
@@ -413,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{3DF7BBF4-B119-47EB-B456-F4AC2CA4039C}">
+    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{3DF7BBF4-B119-47EB-B456-F4AC2CA4039C}">
       <text>
         <r>
           <rPr>
@@ -437,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{4850F62B-97CE-46EE-AC7C-4E2150717B29}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{4850F62B-97CE-46EE-AC7C-4E2150717B29}">
       <text>
         <r>
           <rPr>
@@ -461,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{EBCCA778-CC65-4B4D-BA5A-26571D7F4178}">
+    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{EBCCA778-CC65-4B4D-BA5A-26571D7F4178}">
       <text>
         <r>
           <rPr>
@@ -485,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{9A36D16D-C76F-457D-B5B0-9EBF46EFCB5D}">
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{9A36D16D-C76F-457D-B5B0-9EBF46EFCB5D}">
       <text>
         <r>
           <rPr>
@@ -510,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{5BC61BF9-6ADF-439C-958A-D465AC9C915B}">
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{5BC61BF9-6ADF-439C-958A-D465AC9C915B}">
       <text>
         <r>
           <rPr>
@@ -531,6 +530,198 @@
           </rPr>
           <t xml:space="preserve">
 京东到家</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I37" authorId="0" shapeId="0" xr:uid="{18D8C782-84BF-474D-A87A-1068FF8F355C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+京东，书</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I43" authorId="0" shapeId="0" xr:uid="{70959E25-FA7B-4463-931D-3B64863EAA18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+京东内存卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I44" authorId="0" shapeId="0" xr:uid="{5DED929E-5AE3-401B-9980-157BC5DACF06}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+退货邮费</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{3D0D631A-E960-4083-B66E-C7C62F63A534}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+大唐板栗15+紫燕13.9+京东到家32.3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I45" authorId="0" shapeId="0" xr:uid="{EF63949D-5E51-4B8C-8332-C021E8501ED2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+数据线</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G47" authorId="0" shapeId="0" xr:uid="{DF9AED86-DD5A-45F5-92F5-8C8854CB31D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+京东洗面奶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I49" authorId="0" shapeId="0" xr:uid="{07DD1732-36FB-4833-B491-A0D6EF7FB209}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+宜家</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{3D158C42-03C1-4833-BCE6-F5FBDFFB32AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+科颜氏水</t>
         </r>
       </text>
     </comment>
@@ -539,7 +730,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>流浪共和</t>
   </si>
@@ -580,21 +771,6 @@
   </si>
   <si>
     <t>白条</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据1 </t>
-  </si>
-  <si>
-    <t>数据2</t>
-  </si>
-  <si>
-    <t>数据3</t>
-  </si>
-  <si>
-    <t>数据4</t>
-  </si>
-  <si>
-    <t>数据5</t>
   </si>
   <si>
     <t>其它</t>
@@ -622,47 +798,81 @@
     <t>https://mp.weixin.qq.com/s?__biz=MzI0MDQxNDUwMw==&amp;mid=2247490046&amp;idx=2&amp;sn=35056c072f08be2582d2a5cdfcb7ba85&amp;chksm=e91a63b6de6deaa0962f739298645b4fc2dabf54c65ccc64863c8020de80fac84b4856391d4e&amp;scene=0#rd</t>
   </si>
   <si>
-    <t>排名</t>
-  </si>
-  <si>
-    <t>第三大的数</t>
-  </si>
-  <si>
-    <t>千</t>
-  </si>
-  <si>
-    <t>山</t>
-  </si>
-  <si>
-    <t>鸟</t>
-  </si>
-  <si>
-    <t>飞绝</t>
-  </si>
-  <si>
-    <t>万径</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>踪</t>
-  </si>
-  <si>
-    <t>灭</t>
-  </si>
-  <si>
     <t>化妆品</t>
   </si>
   <si>
     <t>出行</t>
+  </si>
+  <si>
+    <t>12G</t>
+  </si>
+  <si>
+    <t>上限</t>
+  </si>
+  <si>
+    <t>实际</t>
+  </si>
+  <si>
+    <t>吃</t>
+  </si>
+  <si>
+    <t>穿</t>
+  </si>
+  <si>
+    <t>化</t>
+  </si>
+  <si>
+    <t>住</t>
+  </si>
+  <si>
+    <t>剩余</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">299-15
+499-20
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>699-25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+899-30
+1099-35
+1499-45
+1699-50
+满365送购物袋</t>
+    </r>
+  </si>
+  <si>
+    <t>598-25
+897-35
+998-35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,28 +894,51 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0F7D62"/>
-      <name val="Microsoft YaHei UI"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFD6A841"/>
-      <name val="Microsoft YaHei UI"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -720,21 +953,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1257,7 @@
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>5</v>
       </c>
@@ -1037,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3">
         <v>10.9</v>
@@ -1066,7 +1297,18 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>11.11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1079,20 +1321,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3E67D-EFD9-45FB-B050-D45B233E14ED}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -1109,19 +1351,19 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43369</v>
       </c>
@@ -1142,7 +1384,7 @@
         <v>212.49</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43370</v>
       </c>
@@ -1156,11 +1398,11 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J34" si="0">SUM(B3:I3)</f>
+        <f t="shared" ref="J3:J38" si="0">SUM(B3:I3)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43371</v>
       </c>
@@ -1181,7 +1423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43372</v>
       </c>
@@ -1199,7 +1441,7 @@
         <v>79.14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43373</v>
       </c>
@@ -1217,464 +1459,1062 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7">
+        <f t="shared" ref="B7:I7" si="1">SUM(B2:B6)</f>
+        <v>23.939999999999998</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>29.099999999999998</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>132.51999999999998</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>184.55</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>SUM(J2:J6)</f>
+        <v>428.40999999999997</v>
+      </c>
+      <c r="K7">
+        <f>SUM(B7:D7)</f>
+        <v>102.53999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>43374</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>89</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>43375</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>155.34</v>
       </c>
-      <c r="J8">
-        <f>SUM(B8:H8)</f>
+      <c r="J9">
+        <f>SUM(B9:H9)</f>
         <v>155.34</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43376</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>19.899999999999999</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>43377</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>89.9</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>293.89999999999998</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>306.39999999999998</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>30</v>
       </c>
-      <c r="J10">
-        <f>SUM(B10:H10)</f>
+      <c r="J11">
+        <f>SUM(B11:H11)</f>
         <v>690.19999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>43378</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43379</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>173.5</v>
       </c>
-      <c r="J12">
-        <f>SUM(B12:H12)</f>
+      <c r="J13">
+        <f>SUM(B13:H13)</f>
         <v>173.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>43380</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>90</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>43381</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>201</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>219.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43382</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>5.5</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>12.5</v>
       </c>
-      <c r="F15">
-        <v>389.54</v>
-      </c>
-      <c r="H15">
+      <c r="F16">
+        <v>173.92</v>
+      </c>
+      <c r="H16">
         <v>10</v>
       </c>
-      <c r="J15">
-        <f>SUM(B15:H15)</f>
-        <v>417.54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="J16">
+        <f>SUM(B16:H16)</f>
+        <v>201.92</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>43383</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>8.4</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>4260.1000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>43384</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>16.5</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>10.8</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>31.3</v>
       </c>
-      <c r="L17">
-        <v>4323.9399999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>43385</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>11</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="N19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>43386</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>16.309999999999999</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>49.2</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>65.510000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43387</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>32.659999999999997</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>32.9</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>65.56</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>43388</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>9.5</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>3.99</v>
       </c>
-      <c r="J21">
-        <f>SUM(B21:H21)</f>
+      <c r="J22">
+        <f>SUM(B22:H22)</f>
         <v>21.689999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>43389</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>4</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>7</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43390</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>5</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>4.5</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>20.399999999999999</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>27.6</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>112</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>169.5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>43391</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>6.5</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <f>SUM(B24:H24)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>43392</v>
-      </c>
-      <c r="B25">
-        <v>4.9000000000000004</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
       <c r="J25">
+        <f>SUM(B25:H25)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43392</v>
+      </c>
+      <c r="B26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>14.9</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43393</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>47.81</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>57.9</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <f t="shared" si="0"/>
         <v>105.71000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>43394</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>34.619999999999997</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>20</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <f t="shared" si="0"/>
         <v>54.62</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>43395</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>3.9</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>8.5</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>1</v>
       </c>
-      <c r="J28">
-        <f>SUM(B28:H28)</f>
+      <c r="J29">
+        <f>SUM(B29:H29)</f>
         <v>13.4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43396</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
+      <c r="B30">
+        <v>3.9</v>
+      </c>
+      <c r="C30">
+        <v>12.5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43397</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>6.5</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43398</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>11.5</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43399</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>43400</v>
+      </c>
+      <c r="E34">
+        <v>45.4</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>43401</v>
+      </c>
+      <c r="C35">
+        <v>15.9</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>43402</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>43403</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>180.3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>193.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B38">
+        <v>4.5</v>
+      </c>
+      <c r="C38">
+        <v>6.5</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" ref="B39:I39" si="2">SUM(B8:B38)</f>
+        <v>71.199999999999989</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>179.8</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>137.32</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>377.08</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>487.81999999999994</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>155.34</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>495.89</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>707.39999999999986</v>
+      </c>
+      <c r="J39">
+        <f>SUM(J8:J38)</f>
+        <v>2581.8500000000008</v>
+      </c>
+      <c r="K39">
+        <v>4323.9399999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="5">
+        <f>SUM(B39:E39)</f>
+        <v>765.4</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="5">
+        <f>K39*20%</f>
+        <v>864.78800000000001</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41">
+        <f>K39*20%</f>
+        <v>864.78800000000001</v>
+      </c>
+      <c r="G41">
+        <f>K39*10%</f>
+        <v>432.39400000000001</v>
+      </c>
+      <c r="H41">
+        <f>K39*10%</f>
+        <v>432.39400000000001</v>
+      </c>
+      <c r="I41">
+        <f>K39*10%</f>
+        <v>432.39400000000001</v>
+      </c>
+      <c r="L41">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="5">
+        <f>B41-B40</f>
+        <v>99.388000000000034</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42">
+        <f>F41-F39</f>
+        <v>376.96800000000007</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42:I42" si="3">G41-G39</f>
+        <v>277.05399999999997</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>-63.495999999999981</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>-275.00599999999986</v>
+      </c>
+      <c r="K42">
+        <f>SUM(B42:I42)</f>
+        <v>414.90800000000024</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="I43">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43406</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>13.71</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>43407</v>
+      </c>
+      <c r="E45">
+        <v>61.2</v>
+      </c>
+      <c r="I45">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43408</v>
+      </c>
+      <c r="C46">
+        <v>26.3</v>
+      </c>
+      <c r="D46">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>43409</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>17</v>
+      </c>
+      <c r="G47">
+        <v>11.95</v>
+      </c>
+      <c r="H47">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>43410</v>
+      </c>
+      <c r="B48">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C48">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>43411</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>39.5</v>
+      </c>
+      <c r="I49">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>43412</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>7.5</v>
+      </c>
+      <c r="G50">
+        <v>386</v>
+      </c>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>43413</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>14</v>
+      </c>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>43414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>43415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>43422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>43428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73">
+        <f>SUM(B43:B72)</f>
+        <v>28.6</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:K73" si="4">SUM(C43:C72)</f>
+        <v>107.19999999999999</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="4"/>
+        <v>85.710000000000008</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>61.2</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>43397</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>397.95</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="4"/>
+        <v>150.60000000000002</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>43398</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>43399</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>43400</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>43401</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <f t="shared" ref="B35:J35" si="1">SUM(B2:B34)</f>
-        <v>61.739999999999995</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>157.4</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>157.42000000000002</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>464.19999999999993</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>887.99</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>155.34</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>504.69</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
-        <v>527.09999999999991</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
-        <v>2885.8800000000006</v>
-      </c>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="5">
+        <f>SUM(B73:E73)</f>
+        <v>282.70999999999998</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="5">
+        <f>L75*20%</f>
+        <v>1010.1600000000001</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75">
+        <f>L75*20%</f>
+        <v>1010.1600000000001</v>
+      </c>
+      <c r="G75">
+        <f>L75*17%</f>
+        <v>858.63600000000008</v>
+      </c>
+      <c r="H75">
+        <f>L75*3%</f>
+        <v>151.524</v>
+      </c>
+      <c r="I75">
+        <f>L75*10%</f>
+        <v>505.08000000000004</v>
+      </c>
+      <c r="J75">
+        <f>SUM(B75:I75)</f>
+        <v>3535.56</v>
+      </c>
+      <c r="L75">
+        <v>5050.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="5">
+        <f>B75-B74</f>
+        <v>727.45</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76">
+        <f>F75-F73</f>
+        <v>1010.1600000000001</v>
+      </c>
+      <c r="G76">
+        <f>G75-G73</f>
+        <v>460.68600000000009</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ref="H76:I76" si="5">H75-H73</f>
+        <v>147.72399999999999</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>354.48</v>
+      </c>
+      <c r="J76">
+        <f>SUM(B76:I76)</f>
+        <v>2700.5000000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA960E-6676-4F8F-BEE0-80E777F386D8}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,178 +2523,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="H1">
+        <f>SUM(H5:H12)</f>
+        <v>32949.39</v>
+      </c>
+      <c r="I1">
+        <f>SUM(I5:I12)</f>
+        <v>4114.3399999999983</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>4323.9399999999996</v>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>6692.75</v>
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4323.9399999999996</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>2117.2199999999998</v>
-      </c>
-      <c r="C4">
-        <v>654.28</v>
-      </c>
-      <c r="F4">
-        <v>4563</v>
-      </c>
-      <c r="G4">
-        <v>5264.82</v>
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>6692.75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1952.84</v>
+        <v>2117.2199999999998</v>
       </c>
       <c r="C5">
-        <v>935.82</v>
-      </c>
-      <c r="E5">
-        <v>30</v>
+        <v>654.28</v>
+      </c>
+      <c r="F5">
+        <v>4563</v>
       </c>
       <c r="G5">
-        <v>4461.88</v>
+        <f>SUM(B5:F5)</f>
+        <v>7334.5</v>
+      </c>
+      <c r="H5">
+        <v>5264.82</v>
+      </c>
+      <c r="I5">
+        <f>H5-G5</f>
+        <v>-2069.6800000000003</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2925.76</v>
+        <v>1952.84</v>
       </c>
       <c r="C6">
-        <v>663.38</v>
-      </c>
-      <c r="D6">
-        <v>53</v>
+        <v>935.82</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>4345.4799999999996</v>
+        <f t="shared" ref="G6:G12" si="0">SUM(B6:F6)</f>
+        <v>2918.66</v>
+      </c>
+      <c r="H6">
+        <v>4461.88</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I12" si="1">H6-G6</f>
+        <v>1543.2200000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1813.97</v>
+        <v>2925.76</v>
       </c>
       <c r="C7">
-        <v>881.47</v>
-      </c>
-      <c r="E7">
-        <v>190</v>
-      </c>
-      <c r="F7">
-        <v>3463</v>
+        <v>663.38</v>
+      </c>
+      <c r="D7">
+        <v>53</v>
       </c>
       <c r="G7">
-        <v>5242.37</v>
+        <f t="shared" si="0"/>
+        <v>3642.1400000000003</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>4345.4799999999996</v>
       </c>
       <c r="I7">
-        <f>SUM(G7:G9)</f>
-        <v>13826.41</v>
+        <f t="shared" si="1"/>
+        <v>703.33999999999924</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>852.43</v>
+        <v>1813.97</v>
       </c>
       <c r="C8">
-        <v>679.98</v>
-      </c>
-      <c r="D8">
-        <v>55</v>
+        <v>881.47</v>
+      </c>
+      <c r="E8">
+        <v>190</v>
+      </c>
+      <c r="F8">
+        <v>3463</v>
       </c>
       <c r="G8">
-        <v>4260.1000000000004</v>
+        <f t="shared" si="0"/>
+        <v>6348.4400000000005</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>5242.37</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>-1106.0700000000006</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>690.96</v>
+        <v>852.43</v>
       </c>
       <c r="C9">
-        <v>682.72</v>
-      </c>
-      <c r="E9">
-        <v>201</v>
+        <v>679.98</v>
+      </c>
+      <c r="D9">
+        <v>55</v>
       </c>
       <c r="G9">
-        <v>4323.9399999999996</v>
+        <f t="shared" si="0"/>
+        <v>1587.4099999999999</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>4260.1000000000004</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>2672.6900000000005</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>690.96</v>
+      </c>
+      <c r="C10">
+        <v>682.72</v>
+      </c>
+      <c r="E10">
+        <v>201</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1574.68</v>
+      </c>
+      <c r="H10">
+        <v>4323.9399999999996</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>2749.2599999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>893.43</v>
-      </c>
-      <c r="C10">
-        <v>270.24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1025.6400000000001</v>
+      </c>
       <c r="C11">
+        <v>858.44</v>
+      </c>
+      <c r="F11">
+        <v>3463</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>5347.08</v>
+      </c>
+      <c r="H11">
+        <v>5050.8</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-296.27999999999975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>82.14</v>
       </c>
-      <c r="G11">
-        <f>SUM(G2:G9)</f>
-        <v>38915.279999999999</v>
-      </c>
-      <c r="I11">
-        <f>SUM(I7,G11)</f>
-        <v>52741.69</v>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>82.14</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>-82.14</v>
       </c>
     </row>
   </sheetData>
@@ -1863,246 +2765,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E527DD-F7D7-4A33-9F83-0918C0E9A211}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACE54CC-E85B-46AC-84F7-C8DD3016E77D}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>194</v>
-      </c>
-      <c r="B2">
-        <v>158</v>
-      </c>
-      <c r="C2">
-        <v>136</v>
-      </c>
-      <c r="D2">
-        <v>171</v>
-      </c>
-      <c r="E2">
-        <v>126</v>
-      </c>
-      <c r="F2">
-        <f>RANK(E2,E:E)</f>
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <f>LARGE(E2:E6,3)</f>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>133</v>
-      </c>
-      <c r="B3">
-        <v>170</v>
-      </c>
-      <c r="C3">
-        <v>132</v>
-      </c>
-      <c r="D3">
-        <v>141</v>
-      </c>
-      <c r="E3">
-        <v>146</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">RANK(E3,E:E)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>132</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43161</v>
       </c>
       <c r="B4">
-        <v>170</v>
-      </c>
-      <c r="C4">
-        <v>164</v>
-      </c>
-      <c r="D4">
-        <v>123</v>
-      </c>
-      <c r="E4">
-        <v>178</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>191</v>
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>43060</v>
       </c>
       <c r="B5">
-        <v>118</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5">
-        <v>196</v>
-      </c>
-      <c r="E5">
-        <v>106</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>127</v>
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42982</v>
       </c>
       <c r="B6">
-        <v>124</v>
-      </c>
-      <c r="C6">
-        <v>199</v>
-      </c>
-      <c r="D6">
-        <v>134</v>
-      </c>
-      <c r="E6">
-        <v>158</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="e">
-        <f>PHONETIC(A11:B14)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="e">
-        <f t="shared" ref="C12:C13" si="1">PHONETIC(A12:B15)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACE54CC-E85B-46AC-84F7-C8DD3016E77D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42803</v>
+      </c>
+      <c r="B7">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
